--- a/Fichier de données.xlsx
+++ b/Fichier de données.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Variable A</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
-    <t>Colonne2</t>
-  </si>
-  <si>
-    <t>Colonne3</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -98,17 +86,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,22 +94,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="D2:F11" totalsRowCount="1">
-  <autoFilter ref="D2:F10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Colonne1" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Colonne2" totalsRowFunction="sum">
-      <calculatedColumnFormula>COUNTIF(Variable_A, D3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Colonne3" dataDxfId="1">
-      <calculatedColumnFormula>E3/$E$11</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,851 +386,765 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="4" max="5" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f>COUNTIF(Variable_A, D3)</f>
-        <v>13</v>
-      </c>
-      <c r="F3" s="4">
-        <f>E3/$E$11</f>
-        <v>0.10833333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <f>COUNTIF(Variable_A, D4)</f>
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <f>E4/$E$11</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f>COUNTIF(Variable_A, D5)</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="4">
-        <f>E5/$E$11</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>_xlfn.MODE.SNGL(Variable_A)</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f>COUNTIF(Variable_A, D6)</f>
-        <v>14</v>
-      </c>
-      <c r="F6" s="4">
-        <f>E6/$E$11</f>
-        <v>0.11666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f>COUNTIF(Variable_A, D7)</f>
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
-        <f>E7/$E$11</f>
-        <v>0.11666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>COUNTIF(Variable_A, D8)</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="4">
-        <f>E8/$E$11</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <f>COUNTIF(Variable_A, D9)</f>
-        <v>16</v>
-      </c>
-      <c r="F9" s="4">
-        <f>E9/$E$11</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <f>COUNTIF(Variable_A, D10)</f>
-        <v>19</v>
-      </c>
-      <c r="F10" s="4">
-        <f>E10/$E$11</f>
-        <v>0.15833333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <f>SUBTOTAL(109,Tableau6[Colonne2])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>10</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>10</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>6</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>8</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>9</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>9</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>8</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>8</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>6</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>4</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>10</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>4</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>4</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>10</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>5</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>7</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>4</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>10</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>9</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>5</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>8</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>8</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>10</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>10</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>9</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>6</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>6</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>8</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>10</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>3</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>8</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>9</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>10</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>6</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>5</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>5</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>7</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>3</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>8</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>10</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>8</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>4</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>7</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>9</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>8</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>8</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>6</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>8</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>7</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>7</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>3</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>10</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>4</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>10</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>10</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>6</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>4</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>8</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>9</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>5</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>7</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>7</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>5</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>8</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>5</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>6</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>10</v>
       </c>
       <c r="B121" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="D2:D9">
-    <sortCondition ref="D1"/>
-  </sortState>
   <dataConsolidate function="count">
     <dataRefs count="1">
       <dataRef ref="A2:A121" sheet="Données"/>
@@ -1276,9 +1152,6 @@
   </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1288,7 +1161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1300,7 +1173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
